--- a/test/test_vector/member_info.xlsx
+++ b/test/test_vector/member_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" state="visible" r:id="rId2"/>
@@ -72,7 +72,38 @@
     <t xml:space="preserve">id_contact_tel</t>
   </si>
   <si>
-    <t xml:space="preserve">井民全</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">隊員姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC DemiLight"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">領隊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC DemiLight"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">0918523189</t>
@@ -96,9 +127,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
+        <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">路 </t>
     </r>
@@ -114,9 +144,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
+        <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">弄 </t>
     </r>
@@ -132,36 +161,51 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">號</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sloss_huang@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中華民國</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A252419149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelly Huang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0918523289</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">隊員姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC DemiLight"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">號</t>
+      <t xml:space="preserve">2</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sloss_huang@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中華民國</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A252419149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">女</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelly Huang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0918523289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蘇軾</t>
   </si>
   <si>
     <t xml:space="preserve">0918523190</t>
@@ -185,9 +229,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
+        <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">路 </t>
     </r>
@@ -203,9 +246,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
+        <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">弄 </t>
     </r>
@@ -221,27 +263,57 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">號</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A210466111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0918523390</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">隊員姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC DemiLight"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">0918523191</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC DemiLight"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">號</t>
+      <t xml:space="preserve">(other)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">A210466111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0918523390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陶淵明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0918523191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其他(other)</t>
   </si>
   <si>
     <t xml:space="preserve">A165365130</t>
@@ -295,9 +367,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
+        <rFont val="PingFang SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">其他</t>
     </r>
@@ -1401,7 +1472,7 @@
     <t xml:space="preserve">東引鄉</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomas Huang</t>
+    <t xml:space="preserve">留守人姓名</t>
   </si>
   <si>
     <t xml:space="preserve">0918523288</t>
@@ -1418,7 +1489,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1449,6 +1520,16 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Noto Sans CJK TC DemiLight"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Noto Sans CJK TC DemiLight"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1461,9 +1542,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Noto Sans CJK SC Regular"/>
+      <name val="PingFang SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1535,7 +1615,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1552,11 +1632,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1564,34 +1640,42 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1601,28 +1685,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P192"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="21.19"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1694,16 +1776,16 @@
       <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1718,7 +1800,7 @@
       <c r="N2" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -1738,22 +1820,22 @@
       <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -1768,14 +1850,14 @@
       <c r="N3" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1788,22 +1870,22 @@
       <c r="D4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1818,7 +1900,7 @@
       <c r="N4" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -2023,15 +2105,15 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2" type="list">
-      <formula1>IF (member!$C$2=cnt!$A$2:$A$24, cnt!$B$2:$AM$25, "")</formula1>
+      <formula1>IF(member!$C$2=cnt!$A$2:$A$24, cnt!$B$2:$AM$25, "")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3" type="list">
-      <formula1>IF (member!$C$3=cnt!$A$2:$A$24, cnt!$B$2:$AM$25, "")</formula1>
+      <formula1>IF(member!$C$3=cnt!$A$2:$A$24, cnt!$B$2:$AM$25, "")</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4" type="list">
-      <formula1>IF (member!$C$4=cnt!$A$2:$A$24, cnt!$B$2:$AM$25, "")</formula1>
+      <formula1>IF(member!$C$4=cnt!$A$2:$A$24, cnt!$B$2:$AM$25, "")</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2042,7 +2124,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2057,1276 +2139,1273 @@
   </sheetPr>
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Y5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AD5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AE5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AF5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AG5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AH5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AI5" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="AJ5" s="10" t="s">
+      <c r="AJ5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AK5" s="10" t="s">
+      <c r="AK5" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AL5" s="10" t="s">
+      <c r="AL5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AM5" s="10" t="s">
+      <c r="AM5" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AC6" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AD6" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="11" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="11" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="S12" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="T12" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="U12" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="V12" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="W12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="X12" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="Y12" s="10" t="s">
+      <c r="Y12" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="Z12" s="10" t="s">
+      <c r="Z12" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="AA12" s="10" t="s">
+      <c r="AA12" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="AB12" s="10" t="s">
+      <c r="AB12" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="AC12" s="10" t="s">
+      <c r="AC12" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="AD12" s="10" t="s">
+      <c r="AD12" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="T14" s="10" t="s">
+      <c r="T14" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="V14" s="10" t="s">
+      <c r="V14" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="W14" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="X14" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="Y14" s="10" t="s">
+      <c r="Y14" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="Z14" s="10" t="s">
+      <c r="Z14" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="AA14" s="10" t="s">
+      <c r="AA14" s="11" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="T16" s="10" t="s">
+      <c r="T16" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="11" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="R17" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="S17" s="11" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="Q18" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="R18" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="S18" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="T18" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="U18" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="V18" s="10" t="s">
+      <c r="V18" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="W18" s="10" t="s">
+      <c r="W18" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="X18" s="10" t="s">
+      <c r="X18" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="Y18" s="10" t="s">
+      <c r="Y18" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="Z18" s="10" t="s">
+      <c r="Z18" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="AA18" s="10" t="s">
+      <c r="AA18" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AB18" s="10" t="s">
+      <c r="AB18" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AC18" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="AD18" s="10" t="s">
+      <c r="AD18" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="AE18" s="10" t="s">
+      <c r="AE18" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="AF18" s="10" t="s">
+      <c r="AF18" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AG18" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AH18" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AI18" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="AJ18" s="10" t="s">
+      <c r="AJ18" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="AK18" s="10" t="s">
+      <c r="AK18" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="AL18" s="10" t="s">
+      <c r="AL18" s="11" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="T19" s="10" t="s">
+      <c r="T19" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="U19" s="10" t="s">
+      <c r="U19" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="V19" s="10" t="s">
+      <c r="V19" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="W19" s="10" t="s">
+      <c r="W19" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="X19" s="10" t="s">
+      <c r="X19" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="Y19" s="10" t="s">
+      <c r="Y19" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="Z19" s="10" t="s">
+      <c r="Z19" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="AA19" s="10" t="s">
+      <c r="AA19" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="AB19" s="10" t="s">
+      <c r="AB19" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="AC19" s="10" t="s">
+      <c r="AC19" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="AD19" s="10" t="s">
+      <c r="AD19" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="AE19" s="10" t="s">
+      <c r="AE19" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="AF19" s="10" t="s">
+      <c r="AF19" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="AG19" s="10" t="s">
+      <c r="AG19" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="AH19" s="10" t="s">
+      <c r="AH19" s="11" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="11" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="Q21" s="11" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="11" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="11" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>417</v>
       </c>
     </row>
@@ -3336,13 +3415,13 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
-      <formula1>IF (member!$C$2=cnt!$A$2:$A$24, cnt!$B$2:$AM$24, "")</formula1>
+      <formula1>IF(member!$C$2=cnt!$A$2:$A$24, cnt!$B$2:$AM$24, "")</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3357,16 +3436,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,7 +3465,7 @@
       <c r="B2" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3397,7 +3475,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
